--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67546.94153653922</v>
+        <v>-69985.41463628516</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>317.0970681022342</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>22.91288114127234</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>249.8107330807152</v>
+        <v>301.977892923926</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>115.5849346967023</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>74.7576914549238</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>222.2943037901846</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52.72583184004469</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>138.4548260486247</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>86.87333351823655</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>76.81450234612005</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777565</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>85.82697502376021</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>94.08507244101583</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819384</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>113.954991851706</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>195.2208281702703</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181942</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>178.4941061338627</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>13.79222725775175</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
-        <v>151.5133592021556</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>245.8640357413583</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>44.95889092250177</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>177.0850116794024</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1956.89800228326</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1587.935485342849</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1229.669786736098</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>843.8815341378538</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3302.461497224047</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3096.483749608269</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>3096.483749608269</v>
       </c>
       <c r="V2" t="n">
-        <v>3073.271747790266</v>
+        <v>2791.455574937636</v>
       </c>
       <c r="W2" t="n">
-        <v>2720.503092520152</v>
+        <v>2438.686919667522</v>
       </c>
       <c r="X2" t="n">
-        <v>2347.037334259072</v>
+        <v>2065.221161406442</v>
       </c>
       <c r="Y2" t="n">
-        <v>1956.89800228326</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836216</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836216</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836216</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836216</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836216</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0249360836216</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836216</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1159.107070935492</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1159.107070935492</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3272.347405609125</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3066.369657993348</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3066.369657993348</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2735.306770649777</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2735.306770649777</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.1049005553748</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1373.98868883977</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V7" t="n">
-        <v>1119.304200633883</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W7" t="n">
-        <v>829.8870305969223</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X7" t="n">
-        <v>601.8974796989049</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.1049005553748</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1303.228924202404</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>944.9632255956535</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>559.1749729974092</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609169</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>618.4760397199826</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>449.5398567920757</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>299.42321737974</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>299.42321737974</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1742.428664137924</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1742.428664137924</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1453.325797263567</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>839.2686188635128</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>618.4760397199826</v>
       </c>
     </row>
     <row r="11">
@@ -5033,34 +5033,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5230,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885211</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741681</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,49 +5279,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1031.032822456564</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.032822456564</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1824.417283336614</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1569.732795130727</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.315625093766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6169,19 +6169,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
         <v>1202.091371290588</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6935,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
         <v>402.7245934908939</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
   </sheetData>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>77.94152538941971</v>
+        <v>25.77436554620885</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016476</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.2294825375381</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>30.48882721876686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>111.1976478713723</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856704</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>47.21554925517447</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>166.0397529241855</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462278</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>40.32043864788585</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26314,19 +26314,19 @@
         <v>298593.7657794695</v>
       </c>
       <c r="C2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457133</v>
       </c>
-      <c r="D2" t="n">
-        <v>328416.7079457132</v>
-      </c>
       <c r="E2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="F2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="F2" t="n">
-        <v>322858.6398760022</v>
-      </c>
       <c r="G2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
@@ -26338,22 +26338,22 @@
         <v>322858.6398760025</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760025</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50848.90313554126</v>
+        <v>50848.90313554124</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26439,7 +26439,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26451,10 +26451,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1188933.823645058</v>
+        <v>-1189120.217033597</v>
       </c>
       <c r="C6" t="n">
         <v>127078.9805361137</v>
@@ -26528,40 +26528,40 @@
         <v>127078.9805361137</v>
       </c>
       <c r="E6" t="n">
-        <v>-117893.1038321152</v>
+        <v>-117927.8417575505</v>
       </c>
       <c r="F6" t="n">
-        <v>207519.3579752401</v>
+        <v>207484.6200498045</v>
       </c>
       <c r="G6" t="n">
-        <v>207519.3579752402</v>
+        <v>207484.6200498045</v>
       </c>
       <c r="H6" t="n">
-        <v>207519.3579752402</v>
+        <v>207484.6200498046</v>
       </c>
       <c r="I6" t="n">
-        <v>207519.3579752403</v>
+        <v>207484.6200498046</v>
       </c>
       <c r="J6" t="n">
-        <v>-10011.84442203712</v>
+        <v>-10046.58234747278</v>
       </c>
       <c r="K6" t="n">
-        <v>207519.3579752403</v>
+        <v>207484.6200498045</v>
       </c>
       <c r="L6" t="n">
-        <v>207519.3579752403</v>
+        <v>207484.6200498046</v>
       </c>
       <c r="M6" t="n">
-        <v>122464.3300397284</v>
+        <v>122429.5921142928</v>
       </c>
       <c r="N6" t="n">
-        <v>207519.3579752403</v>
+        <v>207484.6200498043</v>
       </c>
       <c r="O6" t="n">
-        <v>207519.3579752402</v>
+        <v>207484.6200498045</v>
       </c>
       <c r="P6" t="n">
-        <v>207519.3579752403</v>
+        <v>207484.6200498044</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>89.7789776394772</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>86.27488064690348</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>64.24704548523501</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>69.99732345939698</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>159.6360662820772</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.46192994813114</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>147.7570121569882</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>199.6496648183544</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>330.0615433955914</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923784</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>59.59407299917103</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>95.68395289042607</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
